--- a/SocialNetwork/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/SocialNetwork/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nedjo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavascriptFrameworks\SocialNetwork\trunk\SocialNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +998,9 @@
       <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
       <c r="D33" s="5">
         <v>5</v>
       </c>
@@ -1008,7 +1010,9 @@
       <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
       <c r="D34" s="5">
         <v>10</v>
       </c>
@@ -1108,7 +1112,7 @@
       </c>
       <c r="C44" s="11">
         <f>SUM(C6:C43)</f>
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D44" s="11">
         <v>370</v>
